--- a/Data/pib_data_estructurada.xlsx
+++ b/Data/pib_data_estructurada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisdespradel/Desktop/Random Projects/Sankey PIB/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845C6C6C-0C8B-CA48-B303-4EB57F0C0351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B339E106-CC0D-B046-8E0A-CAF5DC5E8D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{66ED77C6-0D1C-D245-A797-E9B8F4662477}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{66ED77C6-0D1C-D245-A797-E9B8F4662477}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75890551-39FE-AA4C-9AB8-AAF45722C7B5}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,7 +963,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView zoomScale="114" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,7 +1229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8C6BEB-727E-BD4E-806F-701C9AA80A90}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
